--- a/data/trans_dic/P19C03-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2901603181229824</v>
+        <v>0.2950175670199463</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1408461879271276</v>
+        <v>0.1421782044397587</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2127179503737718</v>
+        <v>0.2212496182129213</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1271684428227891</v>
+        <v>0.1296072393208932</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3447212258371057</v>
+        <v>0.3427653633693258</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2031140872669487</v>
+        <v>0.211121851063648</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1716260514952063</v>
+        <v>0.1750297043526517</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2043191629999278</v>
+        <v>0.2052875273626423</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3397065961342896</v>
+        <v>0.3371300337902714</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1871910486678511</v>
+        <v>0.1823601848507902</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.209564875992808</v>
+        <v>0.2122093209424266</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1788598770011848</v>
+        <v>0.1786138716076202</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4335499862513663</v>
+        <v>0.4320750985498617</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.244493809826279</v>
+        <v>0.2365796972504593</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3354961731546072</v>
+        <v>0.3379393467617088</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2214009506546457</v>
+        <v>0.220522424802317</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4796881012189657</v>
+        <v>0.4848989621266409</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3254994711032763</v>
+        <v>0.3254120832755221</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2776473508156773</v>
+        <v>0.2792981600655753</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2867141970994039</v>
+        <v>0.2917198140866129</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4347579164985273</v>
+        <v>0.4409371405385414</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2657526087414082</v>
+        <v>0.2645684831197256</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2872913761300169</v>
+        <v>0.2946259576179009</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2407459511655014</v>
+        <v>0.2424743297283828</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.2665075164051798</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2225542538674577</v>
+        <v>0.2225542538674576</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3221903889083114</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2903050788158305</v>
+        <v>0.2892672550932148</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2613675202483224</v>
+        <v>0.2591165314154358</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2765270095037535</v>
+        <v>0.2784549417073635</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2235205605221623</v>
+        <v>0.2151953909832623</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2664610835886366</v>
+        <v>0.2652432057147623</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2635404988300848</v>
+        <v>0.2650751952795496</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2243852138094574</v>
+        <v>0.2232850835393575</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1893631552255136</v>
+        <v>0.1917618527792878</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.291844639866824</v>
+        <v>0.2912373487843417</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2741253566700836</v>
+        <v>0.2773246457877464</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2614247564128464</v>
+        <v>0.2621419345783698</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2183312875744841</v>
+        <v>0.2204117588221017</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3837344034173172</v>
+        <v>0.3856949101720798</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.355350139610575</v>
+        <v>0.355449861081027</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3826650252836611</v>
+        <v>0.3780932576327122</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3226736532638395</v>
+        <v>0.3232131891446807</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3524162739131481</v>
+        <v>0.3502468161502411</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3537983751622191</v>
+        <v>0.3543190735752259</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3082039665719097</v>
+        <v>0.3121505887153434</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2566904899675768</v>
+        <v>0.2579057040388771</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3538755263875929</v>
+        <v>0.3556549315708644</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3421566211715124</v>
+        <v>0.340932357081544</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3313828988790608</v>
+        <v>0.3295337720234122</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2781176135257498</v>
+        <v>0.2792384152577161</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2638230060288289</v>
+        <v>0.2584020199497059</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2779370089251206</v>
+        <v>0.2803427132333003</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2315232051444137</v>
+        <v>0.2298923798604648</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1423513375355089</v>
+        <v>0.1431729122221339</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2456038888418026</v>
+        <v>0.2453993080925634</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.219003182599059</v>
+        <v>0.2177272809166552</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1945330142986986</v>
+        <v>0.1953564416688825</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1152755582284579</v>
+        <v>0.1148449340434814</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2672532305088728</v>
+        <v>0.2662882511191473</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2604270094550163</v>
+        <v>0.2611972279868894</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2262985515117656</v>
+        <v>0.2232381598719258</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1380918856998293</v>
+        <v>0.1379494422669283</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3824878447606337</v>
+        <v>0.3763909377788164</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.384629922649549</v>
+        <v>0.3918379125588614</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3304806955635397</v>
+        <v>0.3248083709957639</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2325120482559319</v>
+        <v>0.2320151461197764</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3500795100294251</v>
+        <v>0.3520676739161529</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3241261901020657</v>
+        <v>0.3219474655719216</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.288626111720904</v>
+        <v>0.2901178756985405</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1779758805158421</v>
+        <v>0.1769556136081446</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3464308534204104</v>
+        <v>0.3436590473768236</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3339891859586998</v>
+        <v>0.3381267516811609</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2947415574655439</v>
+        <v>0.2933388030463149</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1894292044067317</v>
+        <v>0.1879210103059672</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2614833809704714</v>
+        <v>0.2590402443357428</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2849514991196479</v>
+        <v>0.2825010940533583</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1448452435060133</v>
+        <v>0.1387554397316116</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1430624964100236</v>
+        <v>0.141912871937828</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2704721241543538</v>
+        <v>0.271825778011921</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2048570496856852</v>
+        <v>0.2072088241751132</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1991550958335243</v>
+        <v>0.1967705134761431</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1535341194540146</v>
+        <v>0.1518561177353763</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.28013418225055</v>
+        <v>0.2805306217477183</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2571386037086434</v>
+        <v>0.2572176141678423</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1824060509961611</v>
+        <v>0.1799930296966883</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1575643178526658</v>
+        <v>0.1606341277783895</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3738709953233191</v>
+        <v>0.3738013027530619</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3922850078532388</v>
+        <v>0.3965525952889297</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2279574452670071</v>
+        <v>0.2243389188235516</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2646207022279307</v>
+        <v>0.2572037166359057</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3736007677695962</v>
+        <v>0.375431471239637</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2980118319513521</v>
+        <v>0.298735215728904</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2937286026040734</v>
+        <v>0.2901249161732397</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2316510279087436</v>
+        <v>0.2374151560451758</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3575398362200719</v>
+        <v>0.3532341086966916</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3289261591353733</v>
+        <v>0.3266155865504207</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2471651085800609</v>
+        <v>0.2420537659512564</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2258115742679514</v>
+        <v>0.2315682871636232</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2205526277570866</v>
+        <v>0.2224837350680105</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2457399686004624</v>
+        <v>0.2432624911690074</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1743011549754902</v>
+        <v>0.1680772589111822</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1627254823395144</v>
+        <v>0.1597583477854816</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2160282112223409</v>
+        <v>0.2125820733443876</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.237544321259005</v>
+        <v>0.2386799647438653</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1787419529159914</v>
+        <v>0.1797044484923151</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1813490305047848</v>
+        <v>0.1840961394195835</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2368410836553029</v>
+        <v>0.2382122272074333</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2587381140414846</v>
+        <v>0.2624062746163174</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1893939351983354</v>
+        <v>0.187994106654338</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1836914764620209</v>
+        <v>0.1855192171030556</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3612415703840638</v>
+        <v>0.3583715281784309</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3875611622260131</v>
+        <v>0.386929593107385</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3368308731506564</v>
+        <v>0.3285886054882649</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2594811201007707</v>
+        <v>0.2641157342815523</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3664012605404358</v>
+        <v>0.3558543695241707</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3697485924151969</v>
+        <v>0.3704086080770496</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3152307747544693</v>
+        <v>0.3124619840947536</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2554790874306732</v>
+        <v>0.2550856649440953</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3338224061575823</v>
+        <v>0.3313179512573297</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3556025083179889</v>
+        <v>0.3562616561727402</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2935402472839732</v>
+        <v>0.2952258619440765</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2448685091261863</v>
+        <v>0.2445428968292333</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.2140338880424463</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1610598710521815</v>
+        <v>0.1610598710521816</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2737611159037285</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2255370952333822</v>
+        <v>0.226343226562212</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2100491208582695</v>
+        <v>0.2113008600828538</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1717207929179256</v>
+        <v>0.1756132066628816</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.190713173565878</v>
+        <v>0.1883118913777156</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2064028101883612</v>
+        <v>0.2029805501866803</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2137977945745733</v>
+        <v>0.2146118490906611</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1663738728705581</v>
+        <v>0.1647836460058207</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1239314002450825</v>
+        <v>0.1261762002804153</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.230018688644274</v>
+        <v>0.2304179035479528</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.226850404056</v>
+        <v>0.2249271733748264</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1872918896837733</v>
+        <v>0.1853886007969201</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1692743366840892</v>
+        <v>0.1659976197259602</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3545299083929531</v>
+        <v>0.3583278250602074</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3273385209072689</v>
+        <v>0.3303953929923776</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2872721246369438</v>
+        <v>0.2837918076907062</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2883251199870115</v>
+        <v>0.2875959441473844</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3238724783973974</v>
+        <v>0.3275129044880045</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3180172577103919</v>
+        <v>0.3220619089780208</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2677716476849124</v>
+        <v>0.2666571975436738</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.19977663719384</v>
+        <v>0.1994232021346098</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3241187042284851</v>
+        <v>0.3209292847665146</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3046478289172752</v>
+        <v>0.3060870095525247</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2583156886181794</v>
+        <v>0.2590813442092093</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2316976199438079</v>
+        <v>0.2280262900322889</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2860198145429987</v>
+        <v>0.2907925118937393</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2633142803314246</v>
+        <v>0.2622434070596001</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3083721309811194</v>
+        <v>0.3055429103200826</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1861826098694314</v>
+        <v>0.1825177151216592</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2726803827759868</v>
+        <v>0.2704864867813591</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2407335020012112</v>
+        <v>0.2390127394461549</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2856092759933088</v>
+        <v>0.284457837005467</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1824661063723306</v>
+        <v>0.1830801269619315</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2935115614479616</v>
+        <v>0.2921397610944269</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2621315107736876</v>
+        <v>0.2610219739570939</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3093288672849326</v>
+        <v>0.3116909730958707</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1936608168077396</v>
+        <v>0.1901535062052564</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.376529631808007</v>
+        <v>0.3758448368741716</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3464527662166098</v>
+        <v>0.339469660859918</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4052184513149553</v>
+        <v>0.4027437070716544</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2660479355742803</v>
+        <v>0.2606589360699356</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3554462742747051</v>
+        <v>0.3573584643397164</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.314540586985676</v>
+        <v>0.3148771072592018</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.374733703992916</v>
+        <v>0.373238717925487</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2377233107814751</v>
+        <v>0.2393934591078522</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3512391396603047</v>
+        <v>0.3490701603143367</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3208119330108045</v>
+        <v>0.3149330277481137</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3750462416704534</v>
+        <v>0.3785393957354261</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2398224124810991</v>
+        <v>0.2385442128021449</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2692723376481372</v>
+        <v>0.2669731258894756</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2855690377724699</v>
+        <v>0.2810524685831586</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2268982297768515</v>
+        <v>0.226701100938863</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.08142618588198178</v>
+        <v>0.08126432044682459</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3135068385764188</v>
+        <v>0.3121551261059203</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3017433237960622</v>
+        <v>0.297565950213336</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.236237902764151</v>
+        <v>0.236410609617904</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1009931748831103</v>
+        <v>0.1045576520133864</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3058695977259752</v>
+        <v>0.3019696178824902</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.3012828715733084</v>
+        <v>0.3020753797539267</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2441187213281168</v>
+        <v>0.2435139501604251</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.09731917165179535</v>
+        <v>0.09774412625962901</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3539276373591567</v>
+        <v>0.3490476257750188</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3595186321901043</v>
+        <v>0.3600094637718312</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2997073721896524</v>
+        <v>0.2969814161114999</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1265123657510875</v>
+        <v>0.1270940602470278</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.391678394909405</v>
+        <v>0.3941097210448554</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3751769065176709</v>
+        <v>0.3731678917575351</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3061506193398161</v>
+        <v>0.3052131730810632</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1413211137200451</v>
+        <v>0.1451647660345365</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3598832415411752</v>
+        <v>0.3613230960039059</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3510372869554478</v>
+        <v>0.3542862438923783</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2922119235090867</v>
+        <v>0.291520648086798</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1262979627593111</v>
+        <v>0.130435360382654</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3016519105184662</v>
+        <v>0.3016202138909649</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2847743930207224</v>
+        <v>0.2833342031761531</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2581588586487161</v>
+        <v>0.2587000698777859</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1770956407395711</v>
+        <v>0.1760733305823292</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.3033560602226798</v>
+        <v>0.3033789484378354</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2737977433923122</v>
+        <v>0.2743542909240912</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2463343077326615</v>
+        <v>0.2452263651303141</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1718381972868926</v>
+        <v>0.1730357289129592</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.306474253072193</v>
+        <v>0.3075339553795495</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2836277408435715</v>
+        <v>0.2823394193310304</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.256438865050747</v>
+        <v>0.2579118168643699</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1786225381199262</v>
+        <v>0.1776015480080458</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3398696292108713</v>
+        <v>0.3390441684535774</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3177897978734626</v>
+        <v>0.3169821146877057</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2949465603126752</v>
+        <v>0.2941207202796064</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2080966291172566</v>
+        <v>0.2078803591585509</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3395936139880668</v>
+        <v>0.3396819731149724</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3066466611192507</v>
+        <v>0.3062154240053243</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.280020733564917</v>
+        <v>0.2787736208645111</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1942222947800154</v>
+        <v>0.1956955172622182</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3338877487156818</v>
+        <v>0.3331496391303114</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3068461993291364</v>
+        <v>0.3067390431260946</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.281295052198706</v>
+        <v>0.2813359264725799</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1983335651649146</v>
+        <v>0.1961638509567183</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>55564</v>
+        <v>56494</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>35290</v>
+        <v>35624</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>52162</v>
+        <v>54254</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>38267</v>
+        <v>39001</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>69365</v>
+        <v>68972</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>50624</v>
+        <v>52620</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>42277</v>
+        <v>43116</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>63229</v>
+        <v>63529</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>133408</v>
+        <v>132396</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>93558</v>
+        <v>91144</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>103012</v>
+        <v>104312</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>109173</v>
+        <v>109023</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>83022</v>
+        <v>82739</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>61260</v>
+        <v>59277</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>82270</v>
+        <v>82869</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>66623</v>
+        <v>66359</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>96524</v>
+        <v>97572</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>81127</v>
+        <v>81105</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>68394</v>
+        <v>68801</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>88728</v>
+        <v>90277</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>170736</v>
+        <v>173163</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>132823</v>
+        <v>132231</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>141218</v>
+        <v>144824</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>146947</v>
+        <v>148002</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>118652</v>
+        <v>118228</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>106201</v>
+        <v>105287</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>100425</v>
+        <v>101125</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>115790</v>
+        <v>111477</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>117563</v>
+        <v>117026</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>115122</v>
+        <v>115792</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>88257</v>
+        <v>87824</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>100668</v>
+        <v>101943</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>248044</v>
+        <v>247528</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>231131</v>
+        <v>233828</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>197766</v>
+        <v>198308</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>229169</v>
+        <v>231353</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>156838</v>
+        <v>157640</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>144389</v>
+        <v>144430</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>138971</v>
+        <v>137310</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>167154</v>
+        <v>167433</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>155486</v>
+        <v>154529</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>154549</v>
+        <v>154776</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>121225</v>
+        <v>122777</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>136460</v>
+        <v>137106</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>300765</v>
+        <v>302277</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>288492</v>
+        <v>287460</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>250689</v>
+        <v>249290</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>291923</v>
+        <v>293100</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>62404</v>
+        <v>61122</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>81620</v>
+        <v>82327</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>67259</v>
+        <v>66785</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>42738</v>
+        <v>42985</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>70932</v>
+        <v>70873</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>71998</v>
+        <v>71578</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>59870</v>
+        <v>60124</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>39390</v>
+        <v>39243</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>140400</v>
+        <v>139893</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>162094</v>
+        <v>162573</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>135388</v>
+        <v>133557</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>88646</v>
+        <v>88555</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>90473</v>
+        <v>89030</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>112952</v>
+        <v>115069</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>96007</v>
+        <v>94359</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>69807</v>
+        <v>69658</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>101105</v>
+        <v>101679</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>106557</v>
+        <v>105841</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>88829</v>
+        <v>89288</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>60815</v>
+        <v>60467</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>181995</v>
+        <v>180539</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>207880</v>
+        <v>210456</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>176335</v>
+        <v>175496</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>121601</v>
+        <v>120633</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>69955</v>
+        <v>69301</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>89212</v>
+        <v>88445</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>47806</v>
+        <v>45796</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>53039</v>
+        <v>52612</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>81016</v>
+        <v>81421</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>70228</v>
+        <v>71034</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>69477</v>
+        <v>68646</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>64425</v>
+        <v>63721</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>158854</v>
+        <v>159079</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>168655</v>
+        <v>168707</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>123837</v>
+        <v>122199</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>124531</v>
+        <v>126957</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>100022</v>
+        <v>100003</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>122815</v>
+        <v>124151</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>75237</v>
+        <v>74042</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>98105</v>
+        <v>95355</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>111906</v>
+        <v>112454</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>102163</v>
+        <v>102411</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>102470</v>
+        <v>101213</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>97204</v>
+        <v>99622</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>202748</v>
+        <v>200307</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>215740</v>
+        <v>214224</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>167802</v>
+        <v>164332</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>178470</v>
+        <v>183020</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>37555</v>
+        <v>37884</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>47196</v>
+        <v>46721</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>20781</v>
+        <v>20039</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>30804</v>
+        <v>30242</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>37569</v>
+        <v>36969</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>46222</v>
+        <v>46443</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>26007</v>
+        <v>26147</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>39861</v>
+        <v>40465</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>81517</v>
+        <v>81989</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>100039</v>
+        <v>101457</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>50137</v>
+        <v>49766</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>75148</v>
+        <v>75896</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>61511</v>
+        <v>61023</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>74434</v>
+        <v>74313</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>40158</v>
+        <v>39175</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>49120</v>
+        <v>49997</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>63719</v>
+        <v>61885</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>71946</v>
+        <v>72075</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>45866</v>
+        <v>45463</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>56155</v>
+        <v>56068</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>114896</v>
+        <v>114034</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>137490</v>
+        <v>137745</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>77707</v>
+        <v>78153</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>100176</v>
+        <v>100043</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>42687</v>
+        <v>42840</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>52507</v>
+        <v>52820</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>40117</v>
+        <v>41026</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>47628</v>
+        <v>47028</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>42207</v>
+        <v>41507</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>56620</v>
+        <v>56836</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>41117</v>
+        <v>40724</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>31176</v>
+        <v>31741</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>90572</v>
+        <v>90729</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>116783</v>
+        <v>115793</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>90041</v>
+        <v>89126</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>84856</v>
+        <v>83214</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>67102</v>
+        <v>67821</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>81826</v>
+        <v>82590</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>67111</v>
+        <v>66298</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>72005</v>
+        <v>71823</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>66228</v>
+        <v>66972</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>84221</v>
+        <v>85292</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>66176</v>
+        <v>65901</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>50256</v>
+        <v>50167</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>127624</v>
+        <v>126368</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>156834</v>
+        <v>157575</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>124186</v>
+        <v>124554</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>116149</v>
+        <v>114308</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>132806</v>
+        <v>135022</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>150696</v>
+        <v>150083</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>136395</v>
+        <v>135144</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>129896</v>
+        <v>127339</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>147075</v>
+        <v>145892</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>150493</v>
+        <v>149417</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>139106</v>
+        <v>138545</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>135156</v>
+        <v>135611</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>294595</v>
+        <v>293218</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>313889</v>
+        <v>312560</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>287477</v>
+        <v>289672</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>278561</v>
+        <v>273516</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>174832</v>
+        <v>174514</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>198276</v>
+        <v>194280</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>179231</v>
+        <v>178136</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>185616</v>
+        <v>181857</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>191716</v>
+        <v>192748</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>196633</v>
+        <v>196844</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>182514</v>
+        <v>181786</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>176086</v>
+        <v>177323</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>352536</v>
+        <v>350359</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>384156</v>
+        <v>377116</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>348552</v>
+        <v>351799</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>344960</v>
+        <v>343122</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>141517</v>
+        <v>140308</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>181024</v>
+        <v>178161</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>145272</v>
+        <v>145146</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>62686</v>
+        <v>62561</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>185725</v>
+        <v>184924</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>211913</v>
+        <v>208979</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>163321</v>
+        <v>163440</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>81835</v>
+        <v>84724</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>341951</v>
+        <v>337591</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>402574</v>
+        <v>403633</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>325067</v>
+        <v>324261</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>153780</v>
+        <v>154451</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>186007</v>
+        <v>183443</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>227901</v>
+        <v>228212</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>191888</v>
+        <v>190143</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>97396</v>
+        <v>97843</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>232035</v>
+        <v>233475</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>263484</v>
+        <v>262074</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>211654</v>
+        <v>211006</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>114513</v>
+        <v>117628</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>402336</v>
+        <v>403946</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>469056</v>
+        <v>473397</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>389107</v>
+        <v>388187</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>199571</v>
+        <v>206108</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>740164</v>
+        <v>740086</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>829226</v>
+        <v>825033</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>687821</v>
+        <v>689263</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>601502</v>
+        <v>598029</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>831480</v>
+        <v>831543</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>860952</v>
+        <v>862702</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>706318</v>
+        <v>703141</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>622876</v>
+        <v>627216</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1592023</v>
+        <v>1597528</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1717750</v>
+        <v>1709948</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1418530</v>
+        <v>1426677</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1254155</v>
+        <v>1246986</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>833938</v>
+        <v>831913</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>925363</v>
+        <v>923011</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>785836</v>
+        <v>783636</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>706796</v>
+        <v>706061</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>930805</v>
+        <v>931047</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>964245</v>
+        <v>962889</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>802908</v>
+        <v>799332</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>704013</v>
+        <v>709353</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1734426</v>
+        <v>1730592</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1858370</v>
+        <v>1857721</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1556025</v>
+        <v>1556251</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1392551</v>
+        <v>1377317</v>
       </c>
     </row>
     <row r="40">
